--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559348.012021439</v>
+        <v>1634877.681686243</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>311.36814463279</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.3171772405466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.58354151325305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>109.4910012253521</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481161</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>68.90297685032183</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>45.15939909649906</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.37285828736616</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="W8" t="n">
-        <v>209.6510370798875</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>32.63347393903441</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>13.00407538591686</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>26.99066976047445</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>45.37449962547137</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>26.97444673954876</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>80.13869128251532</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>50.98540654304551</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.64843562452558</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.10594486672503</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980186034</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>24.07178406386512</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>161.9299707215265</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>173.9898110906269</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>37.22689894156116</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>115.9747399561816</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>20.82998177290616</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.62632676293207</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>806.0470106353782</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.6468506995</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.30824683495</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.30824683495</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.30824683495</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.30824683495</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2177.709280319473</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.709280319473</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942408</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="C7" t="n">
-        <v>381.629223566334</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="D7" t="n">
-        <v>231.5125841539982</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>231.5125841539982</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>84.62263665608788</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>84.62263665608788</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>84.62263665608788</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.62263665608788</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
         <v>1268.68094731003</v>
@@ -4793,61 +4795,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500979</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500979</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.41240417786</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.02757685417</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>444.02757685417</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5060,16 +5062,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5194,25 +5196,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,25 +5223,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
         <v>1322.84934122136</v>
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020477</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300439</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
         <v>1736.599915964471</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>985.400123145958</v>
       </c>
       <c r="C16" t="n">
         <v>972.2646934632137</v>
@@ -5431,25 +5433,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5513,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L18" t="n">
-        <v>534.542980734167</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126628</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>701.4982632568428</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>701.4982632568428</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181187</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201014</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>870.4344461847497</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1484.03077229167</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.613602254709</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5971,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1453.083442653386</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1453.083442653386</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1453.083442653386</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4117.121435937517</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C28" t="n">
-        <v>4117.121435937517</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D28" t="n">
-        <v>4117.121435937517</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426965</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929846</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143404</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937517</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937517</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937517</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937517</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844582</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4802.623829959216</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4547.939341753329</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>4258.522171716369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>4030.532620818351</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.740041674821</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6682,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6780,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>510.7324460062429</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>510.7324460062429</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>510.7324460062429</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>362.8193524238498</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>215.9294049259394</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.3809108364826</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164473</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P36" t="n">
-        <v>4595.49820590022</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632138</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
         <v>359.1696912903951</v>
@@ -7090,7 +7092,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1474.601337160059</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.681327075611</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.895911865117</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>761.7672730786751</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,10 +7195,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4595.49820590022</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1323.168986627976</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1099.383571417482</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>810.2549326310403</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>555.5704444251535</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>266.1532743881928</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X40" t="n">
-        <v>266.1532743881928</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.1532743881928</v>
+        <v>874.6385818722729</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3433.369836656376</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3740.689969936338</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4070.552597600371</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4350.092662819068</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1181.850058497514</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7731,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>1164.055751909234</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.055751909234</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.200876391121</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028816</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360576</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978322</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139973</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720751</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735862</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735862</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208045</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>154.242745712711</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4432928860947</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>64.58985277832144</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>259.2629056590286</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>66.29527136405385</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.92842182449061</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24892,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>228.5889167740518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>159.3876235966526</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3581855871768</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>85.89256833992768</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>17.9020094604108</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.93099889297633</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.0199221570667</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>105.5728211022076</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.6635866904714</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.9583265891627</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930257</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26448,13 +26450,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26490,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26528,40 +26530,40 @@
         <v>244133.1160686359</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272322</v>
+        <v>-170087.0983272331</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496632</v>
+        <v>355072.9381496629</v>
       </c>
       <c r="G6" t="n">
         <v>355072.9381496632</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496633</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496632</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570701</v>
+        <v>178649.71895707</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496632</v>
       </c>
       <c r="L6" t="n">
         <v>355072.9381496629</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.922915826</v>
+        <v>220271.9229158258</v>
       </c>
       <c r="N6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.9381496632</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.9381496632</v>
+        <v>355072.9381496633</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496628</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.743664217087</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.743664217087</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,13 +26770,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>53.90474713821754</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>117.920761415507</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>62.85042113331612</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>255.7818905456554</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>300.8281238281472</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>103.4560739217133</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.82710090117079</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>47.81346828956566</v>
       </c>
       <c r="W8" t="n">
-        <v>139.5899316375255</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>193.0761814500027</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31990,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932186</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.163256083918</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958074</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700214</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415091</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768288</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1634877.681686243</v>
+        <v>1627860.666794532</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>311.36814463279</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>36.31606325004106</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.45262105857543</v>
+        <v>46.94726885378613</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>109.4910012253521</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>115.2511029009961</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.15939909649906</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>193.4171325760649</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>279.9387901805692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365809</v>
+        <v>118.2400173720391</v>
       </c>
     </row>
     <row r="11">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>27.55584844405775</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>13.00407538591686</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>26.99066976047445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>189.9664086064145</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.37449962547137</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>2.499196759841529</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.98540654304551</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>28.73448241073156</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.07178406386512</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.9299707215265</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>124.5531556963744</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>115.9747399561816</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.82998177290616</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>276.5187349146326</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2268.654643287636</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>508.5896820939362</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>90.6258739921231</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>90.6258739921231</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>293.9109374418335</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>293.9109374418335</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>147.0209899439232</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.4492616060802</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1385.096202765581</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>999.3079501673367</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>588.3220453777292</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>170.3582372759161</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.0491016702019</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307627</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307627</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V8" t="n">
-        <v>2414.382636290375</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W8" t="n">
-        <v>2414.382636290375</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X8" t="n">
-        <v>2414.382636290375</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>579.2777040781987</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,22 +5263,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.400123145958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.048587976198</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,49 +5500,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.4344461847497</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>701.4982632568428</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>701.4982632568428</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.423997082767</v>
+        <v>954.8146123150557</v>
       </c>
       <c r="X19" t="n">
-        <v>870.4344461847497</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y19" t="n">
-        <v>870.4344461847497</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,64 +5977,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1453.083442653386</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1453.083442653386</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.083442653386</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.954803866944</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.954803866944</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W25" t="n">
-        <v>874.5376338299834</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X25" t="n">
-        <v>646.5480829319661</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7555037884359</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,37 +6211,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.689320534781</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3492.843747251887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>507.0827848727882</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>507.0827848727882</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1474.601337160059</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1274.681327075611</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1050.895911865117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>761.7672730786751</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>507.0827848727882</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>507.0827848727882</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>507.0827848727882</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.0827848727882</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722729</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X40" t="n">
-        <v>874.6385818722729</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.6385818722729</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1181.850058497514</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>892.7214197110717</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>892.7214197110717</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>892.7214197110717</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.6754855415407</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>496.665036439558</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X46" t="n">
-        <v>268.6754855415407</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y46" t="n">
-        <v>268.6754855415407</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298096</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>32.781406563524</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>191.028804908037</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>154.242745712711</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4432928860947</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23949,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>35.74324678262269</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.58985277832144</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>216.0854565922533</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>97.92842182449061</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>151.0974977712058</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>85.89256833992768</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.9020094604108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>161.6841967022029</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>105.5728211022076</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6635866904714</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>10.0042634219584</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185699</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852506</v>
-      </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.66589619666047e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26456,10 +26456,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-345834.7631459085</v>
       </c>
       <c r="C6" t="n">
+        <v>244133.1160686359</v>
+      </c>
+      <c r="D6" t="n">
         <v>244133.116068636</v>
       </c>
-      <c r="D6" t="n">
-        <v>244133.1160686359</v>
-      </c>
       <c r="E6" t="n">
-        <v>-170087.0983272331</v>
+        <v>-171061.6895869546</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496629</v>
+        <v>354098.3468899414</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899408</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899412</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899416</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.71895707</v>
+        <v>177675.1276973485</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899414</v>
       </c>
       <c r="L6" t="n">
-        <v>355072.9381496629</v>
+        <v>354098.3468899413</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.9229158258</v>
+        <v>219297.3316561042</v>
       </c>
       <c r="N6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899413</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899411</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.9381496628</v>
+        <v>354098.3468899413</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26770,13 +26770,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26804,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>53.90474713821754</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>115.6152529948202</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.85718120047548</v>
+        <v>120.3625334052648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7818905456554</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>208.6716698633611</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>103.4560739217133</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>23.03118778159291</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>47.81346828956566</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.37316471551392</v>
+        <v>100.3446359800557</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>309.5875389014639</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>365.975979961537</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37797,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627860.666794532</v>
+        <v>1632799.929643565</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.31606325004098</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.31606325004106</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.94726885378613</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>129.030642207707</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>115.2511029009961</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>33.26305679144293</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>193.4171325760649</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.2400173720391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.78559640792012</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.55584844405775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.94777137202992</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>76.48708851141257</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>189.9664086064145</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>59.7794577366496</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>58.4224711922605</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.499196759841529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>194.8026695426856</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.73448241073156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>72.57713354156434</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>124.5531556963744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>276.5187349146326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4315,34 +4315,34 @@
         <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>508.5896820939362</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>90.6258739921231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>90.6258739921231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.0275768541693</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C4" t="n">
-        <v>444.0275768541693</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D4" t="n">
-        <v>293.9109374418335</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>293.9109374418335</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>147.0209899439232</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541693</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541693</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2112.324418312743</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>1743.361901372331</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.096202765581</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E5" t="n">
-        <v>999.3079501673367</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>588.3220453777292</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>170.3582372759161</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2270.572072876962</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2016.810287515053</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1685.747400171482</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1332.978744901368</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>959.5129866402885</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>959.5129866402885</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.2777040781987</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2517.487947908643</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>327.7288535116509</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>327.7288535116509</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>496.6650364395578</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,19 +5263,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5284,7 +5284,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>613.801187480228</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>613.801187480228</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678923</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>315.7714544854991</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>168.8815069875888</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>795.4496523104677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>233.78524341101</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571612</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636255</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526318</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405894</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581963</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>886.8760564597223</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>886.8760564597223</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150557</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X19" t="n">
-        <v>762.9293510964552</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.1367719529251</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636255</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526318</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,25 +5977,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,16 +6077,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3055067228584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293934</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>643.8194987924328</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8299478944155</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.3055067228584</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>346.6331511883706</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201016</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>428.9518662368188</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F37" t="n">
         <v>208.7516828383384</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>465.7659634441654</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>237.776412546148</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.776412546148</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="U40" t="n">
-        <v>1038.244483529058</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V40" t="n">
-        <v>783.5599953231707</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W40" t="n">
-        <v>494.1428252862101</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X40" t="n">
-        <v>266.1532743881928</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.1532743881928</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7651,13 +7651,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W46" t="n">
-        <v>675.7912901164499</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X46" t="n">
-        <v>447.8017392184325</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>19.14409596997154</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503179</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711661</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781481</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776738</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298096</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776738</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>32.781406563524</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.64836623864905</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.028804908037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>95.54579709134767</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>209.7502638871648</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>35.74324678262269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>106.714110726728</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>88.01149145430867</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.0854565922533</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.89407122271366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>9.931308980037329</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.0974977712058</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>73.85682910500483</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>42.08221638637283</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>161.6841967022029</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>10.0042634219584</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852504</v>
@@ -26346,16 +26346,16 @@
         <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.66589619666047e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687072</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459085</v>
+        <v>-345834.7631459084</v>
       </c>
       <c r="C6" t="n">
         <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.116068636</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="E6" t="n">
-        <v>-171061.6895869546</v>
+        <v>-170184.5574532048</v>
       </c>
       <c r="F6" t="n">
-        <v>354098.3468899414</v>
+        <v>354975.4790236912</v>
       </c>
       <c r="G6" t="n">
-        <v>354098.3468899408</v>
+        <v>354975.4790236912</v>
       </c>
       <c r="H6" t="n">
-        <v>354098.3468899412</v>
+        <v>354975.4790236906</v>
       </c>
       <c r="I6" t="n">
-        <v>354098.3468899416</v>
+        <v>354975.479023691</v>
       </c>
       <c r="J6" t="n">
-        <v>177675.1276973485</v>
+        <v>178552.2598310978</v>
       </c>
       <c r="K6" t="n">
-        <v>354098.3468899414</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="L6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="M6" t="n">
-        <v>219297.3316561042</v>
+        <v>220174.4637898536</v>
       </c>
       <c r="N6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="O6" t="n">
-        <v>354098.3468899411</v>
+        <v>354975.479023691</v>
       </c>
       <c r="P6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236909</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541008</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541008</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990177</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.6143068222208</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>115.6152529948202</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>120.3625334052648</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>89.55401114438783</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>218.7821368177282</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>208.6716698633611</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800598</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>348.6673132808189</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>23.03118778159291</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.3446359800557</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>107.1571287550456</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.987089538257</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303342</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330547</v>
       </c>
       <c r="K18" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411085</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091987</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091987</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>365.975979961537</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
